--- a/02.문제/16강_정규화_문제.xlsx
+++ b/02.문제/16강_정규화_문제.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="84">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,18 @@
   </si>
   <si>
     <t>방번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,12 +512,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,6 +530,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,31 +824,35 @@
   <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:O43"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="18" max="18" width="10.265625" customWidth="1"/>
+    <col min="22" max="22" width="12.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -843,7 +862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -878,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2">
         <v>100</v>
       </c>
@@ -913,7 +932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2">
         <v>100</v>
       </c>
@@ -948,7 +967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2">
         <v>200</v>
       </c>
@@ -983,7 +1002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2">
         <v>300</v>
       </c>
@@ -1018,7 +1037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="2">
         <v>300</v>
       </c>
@@ -1059,7 +1078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="2">
         <v>300</v>
       </c>
@@ -1085,7 +1104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="2">
         <v>400</v>
       </c>
@@ -1111,7 +1130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2">
         <v>400</v>
       </c>
@@ -1137,7 +1156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2">
         <v>500</v>
       </c>
@@ -1166,7 +1185,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2">
         <v>500</v>
       </c>
@@ -1195,36 +1214,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
+      <c r="I16" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="3" t="s">
@@ -1249,21 +1282,24 @@
         <v>0</v>
       </c>
       <c r="J17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1290,21 +1326,24 @@
         <v>100</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="2">
+        <v>100</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="2">
+      <c r="P18" s="2">
         <v>100</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1331,21 +1370,24 @@
         <v>200</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="2">
+        <v>200</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="P19" s="2">
         <v>100</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1372,21 +1414,24 @@
         <v>300</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="2">
+        <v>300</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="P20" s="2">
         <v>200</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1413,21 +1458,24 @@
         <v>400</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="2">
+        <v>400</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="2">
+      <c r="P21" s="2">
         <v>300</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1450,23 +1498,26 @@
       <c r="G22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="14" t="s">
+      <c r="K22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="2">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="2">
         <v>300</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1491,15 +1542,15 @@
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="N23" s="2">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="P23" s="2">
         <v>300</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1524,15 +1575,15 @@
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="N24" s="2">
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="P24" s="2">
         <v>400</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1555,13 +1606,13 @@
       <c r="G25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N25" s="2">
+      <c r="P25" s="2">
         <v>400</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1584,13 +1635,13 @@
       <c r="G26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="2">
+      <c r="P26" s="2">
         <v>400</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="R26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1613,34 +1664,34 @@
       <c r="G27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="2">
+      <c r="P27" s="2">
         <v>400</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="R27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="8" t="s">
@@ -1649,7 +1700,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="12" t="s">
+      <c r="G30" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1910,14 +1961,14 @@
       <c r="H36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="11" t="s">
         <v>38</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
-      <c r="N36" s="14" t="s">
+      <c r="N36" s="12" t="s">
         <v>39</v>
       </c>
       <c r="O36" s="2" t="s">
@@ -2117,82 +2168,82 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="K44" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="L44" s="15" t="s">
+      <c r="L44" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="N44" s="15" t="s">
+      <c r="N44" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="O44" s="15" t="s">
+      <c r="O44" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="15" t="s">
+      <c r="P44" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Q44" s="15" t="s">
+      <c r="Q44" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="R44" s="15" t="s">
+      <c r="R44" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="S44" s="15" t="s">
+      <c r="S44" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="U44" s="15" t="s">
+      <c r="U44" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="V44" s="15" t="s">
+      <c r="V44" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2202,13 +2253,13 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="17"/>
+      <c r="G45" s="15"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="13" t="s">
+      <c r="M45" s="11" t="s">
         <v>38</v>
       </c>
       <c r="N45" s="2"/>
@@ -2217,55 +2268,55 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-      <c r="T45" s="14" t="s">
+      <c r="T45" s="12" t="s">
         <v>39</v>
       </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="14" t="s">
+      <c r="W45" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="N48" s="15" t="s">
+      <c r="N48" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O48" s="15" t="s">
+      <c r="O48" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q48" s="15" t="s">
+      <c r="Q48" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="R48" s="15" t="s">
+      <c r="R48" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="S48" s="15" t="s">
+      <c r="S48" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="U48" s="15" t="s">
+      <c r="U48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="V48" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="V48" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="W48" s="15" t="s">
+      <c r="W48" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="14:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="N49" s="2"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="14" t="s">
+      <c r="P49" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
       <c r="S49" s="2"/>
-      <c r="T49" s="14" t="s">
+      <c r="T49" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
       <c r="W49" s="2"/>
     </row>
   </sheetData>
